--- a/biology/Médecine/1508_en_santé_et_médecine/1508_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1508_en_santé_et_médecine/1508_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1508_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1508_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1508 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1508_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1508_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5 mars : fondation de la Communauté des apothicaires de Rouen[1],[2].
-Fondation du collège des chirurgiens barbiers d'Édimbourg[3].
-La confrérie de le Trinité de Lyon fait construire, à côté de l'hôpital des pestiférés de Saint-Laurent des Vignes, « un hôpital de six chambres garnies, qu'elle agrandi[ra] par la suite, avant que l'hôpital de la Quarantaine l'absorb[e][4] ».
-« Un petit jardin botanique est aménagé devant la salle des actes de la faculté de médecine de Paris[5]. »
-1499-1508 : construction du vieil hôpital de Nantes[6].
-1508-1514 : construction, « à l'instigation du capitoulat et grâce à des dons privés », de l'hôpital Saint-Sébastien de Toulouse, destiné aux pestiférés et qui « accueill[era], à partir de 1530, les pauvres valides étrangers à la ville et, à partir de 1543, l'excédent des pauvres de l'hôpital Saint-Jacques[7] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 mars : fondation de la Communauté des apothicaires de Rouen,.
+Fondation du collège des chirurgiens barbiers d'Édimbourg.
+La confrérie de le Trinité de Lyon fait construire, à côté de l'hôpital des pestiférés de Saint-Laurent des Vignes, « un hôpital de six chambres garnies, qu'elle agrandi[ra] par la suite, avant que l'hôpital de la Quarantaine l'absorb[e] ».
+« Un petit jardin botanique est aménagé devant la salle des actes de la faculté de médecine de Paris. »
+1499-1508 : construction du vieil hôpital de Nantes.
+1508-1514 : construction, « à l'instigation du capitoulat et grâce à des dons privés », de l'hôpital Saint-Sébastien de Toulouse, destiné aux pestiférés et qui « accueill[era], à partir de 1530, les pauvres valides étrangers à la ville et, à partir de 1543, l'excédent des pauvres de l'hôpital Saint-Jacques ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1508_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1508_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À Paris, « un arrêt de Louis XII rend obligatoire la présence de deux docteurs en médecine lors des visites effectuées par les maîtres épiciers-apothicaires des boutiques d'apothicairerie et d'épicerie », ces métiers étant dès lors « contraints de se soumettre à l'autorité de la faculté de médecine[8] ».
-Vers 1508 : Ulrich von Hutten (1488-1523) contracte la syphilis[9], maladie sur laquelle il publiera en 1519 son traité sur le traitement du mal français par le bois de gaïac (De guaiaci medicina et morbo gallico[10]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À Paris, « un arrêt de Louis XII rend obligatoire la présence de deux docteurs en médecine lors des visites effectuées par les maîtres épiciers-apothicaires des boutiques d'apothicairerie et d'épicerie », ces métiers étant dès lors « contraints de se soumettre à l'autorité de la faculté de médecine ».
+Vers 1508 : Ulrich von Hutten (1488-1523) contracte la syphilis, maladie sur laquelle il publiera en 1519 son traité sur le traitement du mal français par le bois de gaïac (De guaiaci medicina et morbo gallico).</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1508_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1508_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1508 (1507 a.s.) : publication à Paris chez Antoine Vérard, de la Condamnation de Banquet, moralité attribuée à Nicolas de La Chesnaye et qui « mérite de retenir l'attention des historiens des sciences médicales » parce « qu'elle n'est, en somme, qu'une leçon de diététique[11] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1508 (1507 a.s.) : publication à Paris chez Antoine Vérard, de la Condamnation de Banquet, moralité attribuée à Nicolas de La Chesnaye et qui « mérite de retenir l'attention des historiens des sciences médicales » parce « qu'elle n'est, en somme, qu'une leçon de diététique ».</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1508_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1508_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8 décembre : Gemma Frisius, mort en 1555, mathématicien, géographe et médecin des Pays-Bas, professeur de mathématiques, de médecine et d'anatomie à Louvain ou il eut Mercator pour élève[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 décembre : Gemma Frisius, mort en 1555, mathématicien, géographe et médecin des Pays-Bas, professeur de mathématiques, de médecine et d'anatomie à Louvain ou il eut Mercator pour élève.</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1508_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1508_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27 août : Jérôme Münzer (né entre 1437 et 1460), médecin et voyageur allemand[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 août : Jérôme Münzer (né entre 1437 et 1460), médecin et voyageur allemand.
 </t>
         </is>
       </c>
